--- a/lab/lab5/mediciones.xlsx
+++ b/lab/lab5/mediciones.xlsx
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8055" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sustraccion4" sheetId="2" r:id="rId2"/>
+    <sheet name="Sustraccion5" sheetId="3" r:id="rId3"/>
+    <sheet name="Division4" sheetId="4" r:id="rId4"/>
+    <sheet name="Division5" sheetId="5" r:id="rId5"/>
+    <sheet name="MergeSort" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +29,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>¿para qué valor de n dejan de dar tiempo (abortan) las clases Sustraccion1 y Sustraccion2? ¿por qué sucede eso?</t>
   </si>
   <si>
     <t>Se tarda en llegar a la parada y la pila se desborda</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>FDT</t>
+  </si>
+  <si>
+    <t>ordenado</t>
+  </si>
+  <si>
+    <t>inverso</t>
+  </si>
+  <si>
+    <t>aleatorio</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Merge/Quick</t>
   </si>
 </sst>
 </file>
@@ -359,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -403,4 +432,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>2*C7</f>
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" ref="C9:C11" si="0">2*C8</f>
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="D10">
+        <v>20985</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D8:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>17526</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>52605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>2*C7</f>
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" ref="C9:C12" si="0">2*C8</f>
+        <v>4000</v>
+      </c>
+      <c r="D9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="D10">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="D11">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="D12">
+        <v>22778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>2*D7</f>
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" ref="D9:D13" si="0">2*D8</f>
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="E10">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="E11">
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="E12">
+        <v>50169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>2*D7</f>
+        <v>62500</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" ref="D9:D23" si="0">2*D8</f>
+        <v>125000</v>
+      </c>
+      <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>84</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>174</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>178</v>
+      </c>
+      <c r="K10">
+        <f>G10/I10</f>
+        <v>1.1235955056179776</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="E11">
+        <v>333</v>
+      </c>
+      <c r="F11">
+        <v>361</v>
+      </c>
+      <c r="G11">
+        <v>424</v>
+      </c>
+      <c r="I11">
+        <v>355</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K18" si="1">G11/I11</f>
+        <v>1.1943661971830986</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="E12">
+        <v>686</v>
+      </c>
+      <c r="F12">
+        <v>750</v>
+      </c>
+      <c r="G12">
+        <v>879</v>
+      </c>
+      <c r="I12">
+        <v>717</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1.2259414225941423</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="E13">
+        <v>1423</v>
+      </c>
+      <c r="F13">
+        <v>1483</v>
+      </c>
+      <c r="G13">
+        <v>1816</v>
+      </c>
+      <c r="I13">
+        <v>1616</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.1237623762376239</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="E14">
+        <v>3054</v>
+      </c>
+      <c r="F14">
+        <v>3086</v>
+      </c>
+      <c r="G14">
+        <v>3762</v>
+      </c>
+      <c r="I14">
+        <v>3345</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1.1246636771300449</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+      <c r="E15">
+        <v>6166</v>
+      </c>
+      <c r="F15">
+        <v>6454</v>
+      </c>
+      <c r="G15">
+        <v>7780</v>
+      </c>
+      <c r="I15">
+        <v>6801</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.1439494192030584</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>16000000</v>
+      </c>
+      <c r="E16">
+        <v>12677</v>
+      </c>
+      <c r="F16">
+        <v>13483</v>
+      </c>
+      <c r="G16">
+        <v>16062</v>
+      </c>
+      <c r="I16">
+        <v>14230</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.1287420941672524</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>32000000</v>
+      </c>
+      <c r="E17">
+        <v>26185</v>
+      </c>
+      <c r="F17">
+        <v>27680</v>
+      </c>
+      <c r="G17">
+        <v>33190</v>
+      </c>
+      <c r="I17">
+        <v>28926</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.147410634031667</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>64000000</v>
+      </c>
+      <c r="E18">
+        <v>53814</v>
+      </c>
+      <c r="F18">
+        <v>56743</v>
+      </c>
+      <c r="G18">
+        <v>68539</v>
+      </c>
+      <c r="I18">
+        <v>59614</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>1.1497131546281074</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>128000000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>256000000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>512000000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1024000000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2048000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab/lab5/mediciones.xlsx
+++ b/lab/lab5/mediciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo293697\Desktop\Algoritmia\lab\lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b4c814603cc326/Escritorio/uo/2/Algoritmia/lab/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{788B9CA4-390B-4B94-8E65-6449F80A4BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99432C04-F260-4A43-89FE-795B8CEA7D5A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8055" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-21710" yWindow="7020" windowWidth="21820" windowHeight="14620" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,32 @@
     <sheet name="Sustraccion5" sheetId="3" r:id="rId3"/>
     <sheet name="Division4" sheetId="4" r:id="rId4"/>
     <sheet name="Division5" sheetId="5" r:id="rId5"/>
-    <sheet name="MergeSort" sheetId="6" r:id="rId6"/>
+    <sheet name="Vectro suma" sheetId="7" r:id="rId6"/>
+    <sheet name="FIbo" sheetId="8" r:id="rId7"/>
+    <sheet name="MergeSort" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>¿para qué valor de n dejan de dar tiempo (abortan) las clases Sustraccion1 y Sustraccion2? ¿por qué sucede eso?</t>
   </si>
@@ -59,13 +73,55 @@
   </si>
   <si>
     <t>Merge/Quick</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Algoritmo 1</t>
+  </si>
+  <si>
+    <t>Algoritmo 2</t>
+  </si>
+  <si>
+    <t>Algoritmo 3</t>
+  </si>
+  <si>
+    <t>T(nanosegundos)</t>
+  </si>
+  <si>
+    <t>Algoritmo1</t>
+  </si>
+  <si>
+    <t>Algoritmo2</t>
+  </si>
+  <si>
+    <t>Algoritmo3</t>
+  </si>
+  <si>
+    <t>Algoritmo4</t>
+  </si>
+  <si>
+    <t>FdF</t>
+  </si>
+  <si>
+    <t>aleatorio(Mezcla)</t>
+  </si>
+  <si>
+    <t>aleatorio(rapido)</t>
+  </si>
+  <si>
+    <t>Mezcla/Rápido</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +137,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -98,14 +178,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +274,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,24 +542,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>2E+80</v>
       </c>
@@ -414,15 +571,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C5" s="1">
         <v>2E+20</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
       <c r="I7" s="2"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C13">
         <f>365*24*3600</f>
         <v>31536000</v>
@@ -435,69 +592,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
         <v>200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
         <f>2*C7</f>
         <v>400</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
         <f t="shared" ref="C9:C11" si="0">2*C8</f>
         <v>800</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2628</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>20985</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -507,52 +667,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
         <v>34</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>5847</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>17526</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
         <v>38</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>52605</v>
       </c>
     </row>
@@ -562,65 +730,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C6:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="4">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>22.9</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="4">
         <f>2*C7</f>
         <v>2000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="4">
         <f t="shared" ref="C9:C12" si="0">2*C8</f>
         <v>4000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1396</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>5626</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>22778</v>
       </c>
     </row>
@@ -630,65 +806,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D6:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="4">
         <v>1000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
         <f>2*D7</f>
         <v>2000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <f t="shared" ref="D9:D13" si="0">2*D8</f>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D12" si="0">2*D8</f>
         <v>4000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3194</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>12540</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>32000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>50169</v>
       </c>
     </row>
@@ -698,16 +882,129 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96EED34-BBB1-401C-9608-7B999C969722}">
+  <dimension ref="E7:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="8"/>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2E6E24-1D7B-4D8C-A591-D74D449E34DC}">
+  <dimension ref="D4:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="D4:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -715,17 +1012,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
@@ -735,47 +1032,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D7" s="4">
         <v>31250</v>
       </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8">
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
         <f>2*D7</f>
         <v>62500</v>
       </c>
-      <c r="G8">
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
         <f t="shared" ref="D9:D23" si="0">2*D8</f>
         <v>125000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>81</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>84</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>160</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>174</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="I10">
@@ -786,18 +1098,18 @@
         <v>1.1235955056179776</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>333</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>361</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>424</v>
       </c>
       <c r="I11">
@@ -808,18 +1120,18 @@
         <v>1.1943661971830986</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>686</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>750</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>879</v>
       </c>
       <c r="I12">
@@ -830,18 +1142,18 @@
         <v>1.2259414225941423</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>1423</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>1483</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>1816</v>
       </c>
       <c r="I13">
@@ -852,18 +1164,18 @@
         <v>1.1237623762376239</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D14">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>3054</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>3086</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>3762</v>
       </c>
       <c r="I14">
@@ -874,18 +1186,18 @@
         <v>1.1246636771300449</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>6166</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>6454</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>7780</v>
       </c>
       <c r="I15">
@@ -896,18 +1208,18 @@
         <v>1.1439494192030584</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>12677</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>13483</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>16062</v>
       </c>
       <c r="I16">
@@ -918,18 +1230,18 @@
         <v>1.1287420941672524</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>32000000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>26185</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>27680</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>33190</v>
       </c>
       <c r="I17">
@@ -940,18 +1252,18 @@
         <v>1.147410634031667</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>64000000</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>53814</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>56743</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>68539</v>
       </c>
       <c r="I18">
@@ -962,34 +1274,228 @@
         <v>1.1497131546281074</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>128000000</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>256000000</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>512000000</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>1024000000</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>2048000000</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G34" s="4">
+        <v>31250</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G35" s="4">
+        <v>62500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>50</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G36" s="4">
+        <v>125000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>101</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G37" s="4">
+        <v>250000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>200</v>
+      </c>
+      <c r="I37" s="3">
+        <v>178</v>
+      </c>
+      <c r="J37" s="3">
+        <f>H37/I37</f>
+        <v>1.1235955056179776</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G38" s="4">
+        <v>500000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>424</v>
+      </c>
+      <c r="I38" s="3">
+        <v>355</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" ref="J38:J45" si="2">H38/I38</f>
+        <v>1.1943661971830986</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G39" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>879</v>
+      </c>
+      <c r="I39" s="3">
+        <v>717</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2259414225941423</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G40" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1816</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1616</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1237623762376239</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G41" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3762</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3345</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1246636771300449</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G42" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7780</v>
+      </c>
+      <c r="I42" s="3">
+        <v>6801</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1439494192030584</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G43" s="4">
+        <v>16000000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>16062</v>
+      </c>
+      <c r="I43" s="3">
+        <v>14230</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1287420941672524</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G44" s="4">
+        <v>32000000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>33190</v>
+      </c>
+      <c r="I44" s="3">
+        <v>28926</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="2"/>
+        <v>1.147410634031667</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G45" s="4">
+        <v>64000000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>68539</v>
+      </c>
+      <c r="I45" s="3">
+        <v>59614</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1497131546281074</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J46" s="3">
+        <f>GEOMEAN(J37:J45)</f>
+        <v>1.150866426536149</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
